--- a/20231208_NTP_DCCS.xlsx
+++ b/20231208_NTP_DCCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joachim.Wan\Desktop\OpsProject\dccs_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE9302E-7BAB-4454-BE14-6102C042DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C80D205-A749-4CDC-A2AA-4E7A24C4C7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCCS" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
       <pane xSplit="14" ySplit="11" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
